--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448673333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N2">
-        <v>0.434602</v>
+        <v>0.335025</v>
       </c>
       <c r="O2">
-        <v>0.03218399861311745</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P2">
-        <v>0.03218399861311746</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q2">
-        <v>0.537305840834</v>
+        <v>0.372694429275</v>
       </c>
       <c r="R2">
-        <v>4.835752567506</v>
+        <v>3.354249863475</v>
       </c>
       <c r="S2">
-        <v>0.00631733393609502</v>
+        <v>0.005421639848399691</v>
       </c>
       <c r="T2">
-        <v>0.006317333936095022</v>
+        <v>0.005421639848399691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q3">
-        <v>8.356966358422001</v>
+        <v>7.519595828719333</v>
       </c>
       <c r="R3">
-        <v>75.21269722579801</v>
+        <v>67.67636245847399</v>
       </c>
       <c r="S3">
-        <v>0.09825641779162103</v>
+        <v>0.1093886497529668</v>
       </c>
       <c r="T3">
-        <v>0.09825641779162105</v>
+        <v>0.1093886497529668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002935666666666666</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N4">
-        <v>0.008806999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O4">
-        <v>0.0006521932153688326</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P4">
-        <v>0.0006521932153688327</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q4">
-        <v>0.010888243819</v>
+        <v>0.05203315942066667</v>
       </c>
       <c r="R4">
-        <v>0.09799419437099999</v>
+        <v>0.468298434786</v>
       </c>
       <c r="S4">
-        <v>0.0001280177265065252</v>
+        <v>0.0007569339072279596</v>
       </c>
       <c r="T4">
-        <v>0.0001280177265065252</v>
+        <v>0.0007569339072279596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096925333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N5">
-        <v>6.290775999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q5">
-        <v>7.777393311991999</v>
+        <v>5.521260639139</v>
       </c>
       <c r="R5">
-        <v>69.996539807928</v>
+        <v>49.691345752251</v>
       </c>
       <c r="S5">
-        <v>0.09144213029201911</v>
+        <v>0.08031857828620546</v>
       </c>
       <c r="T5">
-        <v>0.09144213029201913</v>
+        <v>0.08031857828620546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>30.851089</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003305333333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N6">
-        <v>0.009915999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q6">
-        <v>0.012259319372</v>
+        <v>1.148431788025</v>
       </c>
       <c r="R6">
-        <v>0.110333874348</v>
+        <v>10.335886092225</v>
       </c>
       <c r="S6">
-        <v>0.0001441380465582722</v>
+        <v>0.01670640357366594</v>
       </c>
       <c r="T6">
-        <v>0.0001441380465582722</v>
+        <v>0.01670640357366594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1448673333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N7">
-        <v>0.434602</v>
+        <v>6.759566</v>
       </c>
       <c r="O7">
-        <v>0.03218399861311745</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P7">
-        <v>0.03218399861311746</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q7">
-        <v>1.489771664619778</v>
+        <v>23.17110802970822</v>
       </c>
       <c r="R7">
-        <v>13.407944981578</v>
+        <v>208.539972267374</v>
       </c>
       <c r="S7">
-        <v>0.01751588086093954</v>
+        <v>0.3370734649021141</v>
       </c>
       <c r="T7">
-        <v>0.01751588086093955</v>
+        <v>0.3370734649021141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.253188666666667</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N8">
-        <v>6.759566</v>
+        <v>0.046774</v>
       </c>
       <c r="O8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q8">
-        <v>23.17110802970823</v>
+        <v>0.1603365374317778</v>
       </c>
       <c r="R8">
-        <v>208.539972267374</v>
+        <v>1.443028836886</v>
       </c>
       <c r="S8">
-        <v>0.2724325997755595</v>
+        <v>0.002332438835175437</v>
       </c>
       <c r="T8">
-        <v>0.2724325997755596</v>
+        <v>0.002332438835175437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,54 +980,54 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002935666666666666</v>
+        <v>1.654403</v>
       </c>
       <c r="N9">
-        <v>0.008806999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O9">
-        <v>0.0006521932153688326</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P9">
-        <v>0.0006521932153688327</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q9">
-        <v>0.03018950453588888</v>
+        <v>17.01337806495567</v>
       </c>
       <c r="R9">
-        <v>0.271705540823</v>
+        <v>153.120402584601</v>
       </c>
       <c r="S9">
-        <v>0.0003549508809032047</v>
+        <v>0.2474960751420072</v>
       </c>
       <c r="T9">
-        <v>0.0003549508809032048</v>
+        <v>0.2474960751420072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.28369633333333</v>
+        <v>3.355061</v>
       </c>
       <c r="H10">
-        <v>30.851089</v>
+        <v>10.065183</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.096925333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N10">
-        <v>6.290775999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q10">
-        <v>21.56414336167377</v>
+        <v>0.3746764371749999</v>
       </c>
       <c r="R10">
-        <v>194.077290255064</v>
+        <v>3.372087934574999</v>
       </c>
       <c r="S10">
-        <v>0.253538830789683</v>
+        <v>0.005450472404419877</v>
       </c>
       <c r="T10">
-        <v>0.2535388307896831</v>
+        <v>0.005450472404419877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.28369633333333</v>
+        <v>3.355061</v>
       </c>
       <c r="H11">
-        <v>30.851089</v>
+        <v>10.065183</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003305333333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N11">
-        <v>0.009915999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q11">
-        <v>0.03399104428044444</v>
+        <v>7.559585421175332</v>
       </c>
       <c r="R11">
-        <v>0.305919398524</v>
+        <v>68.03626879057799</v>
       </c>
       <c r="S11">
-        <v>0.0003996472050682614</v>
+        <v>0.1099703841470184</v>
       </c>
       <c r="T11">
-        <v>0.0003996472050682615</v>
+        <v>0.1099703841470184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1448673333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N12">
-        <v>0.434602</v>
+        <v>0.046774</v>
       </c>
       <c r="O12">
-        <v>0.03218399861311745</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P12">
-        <v>0.03218399861311746</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q12">
-        <v>0.7102560930468887</v>
+        <v>0.05230987440466666</v>
       </c>
       <c r="R12">
-        <v>6.392304837422</v>
+        <v>0.470788869642</v>
       </c>
       <c r="S12">
-        <v>0.008350783816082884</v>
+        <v>0.0007609593201830771</v>
       </c>
       <c r="T12">
-        <v>0.008350783816082886</v>
+        <v>0.0007609593201830771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,122 +1240,122 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.253188666666667</v>
+        <v>1.654403</v>
       </c>
       <c r="N13">
-        <v>6.759566</v>
+        <v>4.963209</v>
       </c>
       <c r="O13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q13">
-        <v>11.04694165662511</v>
+        <v>5.550622983583</v>
       </c>
       <c r="R13">
-        <v>99.422474909626</v>
+        <v>49.95560685224699</v>
       </c>
       <c r="S13">
-        <v>0.1298836046694312</v>
+        <v>0.08074571656404263</v>
       </c>
       <c r="T13">
-        <v>0.1298836046694312</v>
+        <v>0.08074571656404263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>0.18289</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.003578283316573439</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.003578283316573439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002935666666666666</v>
+        <v>0.111675</v>
       </c>
       <c r="N14">
-        <v>0.008806999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O14">
-        <v>0.0006521932153688326</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P14">
-        <v>0.0006521932153688327</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q14">
-        <v>0.01439299729744444</v>
+        <v>0.006808080249999999</v>
       </c>
       <c r="R14">
-        <v>0.129536975677</v>
+        <v>0.06127272224999999</v>
       </c>
       <c r="S14">
-        <v>0.0001692246079591027</v>
+        <v>9.903812956449491E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001692246079591027</v>
+        <v>9.90381295644949E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>0.18289</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.003578283316573439</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.003578283316573439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,60 +1364,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.096925333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N15">
-        <v>6.290775999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q15">
-        <v>10.28081321299289</v>
+        <v>0.1373618917488889</v>
       </c>
       <c r="R15">
-        <v>92.52731891693598</v>
+        <v>1.23625702574</v>
       </c>
       <c r="S15">
-        <v>0.1208759057974943</v>
+        <v>0.001998223336490574</v>
       </c>
       <c r="T15">
-        <v>0.1208759057974943</v>
+        <v>0.001998223336490574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.902803666666666</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H16">
-        <v>14.708411</v>
+        <v>0.18289</v>
       </c>
       <c r="I16">
-        <v>0.2594700526950464</v>
+        <v>0.003578283316573439</v>
       </c>
       <c r="J16">
-        <v>0.2594700526950464</v>
+        <v>0.003578283316573439</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.003305333333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N16">
-        <v>0.009915999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q16">
-        <v>0.01620540038622222</v>
+        <v>0.0009504996511111111</v>
       </c>
       <c r="R16">
-        <v>0.145848603476</v>
+        <v>0.00855449686</v>
       </c>
       <c r="S16">
-        <v>0.0001905338040788535</v>
+        <v>1.3827056107006E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001905338040788535</v>
+        <v>1.3827056107006E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.654403</v>
+      </c>
+      <c r="N17">
+        <v>4.963209</v>
+      </c>
+      <c r="O17">
+        <v>0.4100275647866666</v>
+      </c>
+      <c r="P17">
+        <v>0.4100275647866666</v>
+      </c>
+      <c r="Q17">
+        <v>0.1008579215566667</v>
+      </c>
+      <c r="R17">
+        <v>0.90772129401</v>
+      </c>
+      <c r="S17">
+        <v>0.001467194794411364</v>
+      </c>
+      <c r="T17">
+        <v>0.001467194794411364</v>
       </c>
     </row>
   </sheetData>
